--- a/pred_ohlcv/54_21/2020-01-23 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 APIS ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-2178028.382199998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5491906.671399998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3599819.644100004</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9185266.236500004</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12351280.5852</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10740132.5313</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12481126.2364</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>15226055.5366</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10944380.6182</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10944380.6182</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7620798.797400003</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9980905.797400003</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6756642.992200004</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5318348.451400004</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4463431.576500004</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5731587.453500004</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8592553.477100004</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2969519.005300004</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6700661.411200004</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6701547.778400004</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1313064.567000004</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-11363688.44159999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-11538647.77459999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10214409.04449999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-14103194.52869999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17517905.13059999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-16594413.98699999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17866091.96349999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-13678981.31709999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6442470.146399993</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 APIS ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-2178028.382199998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5491906.671399998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10740132.5313</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>15226055.5366</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10944380.6182</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10944380.6182</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6756642.992200004</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5318348.451400004</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2591235.172300004</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-11363688.44159999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-11538647.77459999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10214409.04449999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-14103194.52869999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17517905.13059999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-16594413.98699999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17866091.96349999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-13678981.31709999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6442470.146399993</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
